--- a/config_12.15/activity_exchange_server.xlsx
+++ b/config_12.15/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="154">
   <si>
     <t>id|</t>
   </si>
@@ -862,6 +862,41 @@
   </si>
   <si>
     <t>金龙鱼玉米油4L</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至换好礼-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",</t>
+  </si>
+  <si>
+    <t>冬至换好礼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在冬至换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在冬至换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳洲进口奶粉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰清香大米</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +978,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,6 +1012,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,9 +1083,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1150,6 +1194,44 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1430,8 +1512,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1519,11 +1601,11 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="1">
@@ -1555,9 +1637,9 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="L3" s="18"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1">
@@ -1589,8 +1671,8 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
@@ -1616,7 +1698,7 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -1647,14 +1729,14 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>5</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="1">
@@ -1680,108 +1762,146 @@
       <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>6</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" s="38" customFormat="1" ht="16.5">
-      <c r="A8" s="35">
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A8" s="34">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>1607385600</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>1607961599</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="35">
-        <v>1</v>
-      </c>
-      <c r="I8" s="35">
+      <c r="H8" s="34">
+        <v>1</v>
+      </c>
+      <c r="I8" s="34">
         <v>7</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>7</v>
       </c>
-      <c r="K8" s="38">
-        <v>1</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="38" customFormat="1" ht="16.5">
-      <c r="A9" s="35">
+      <c r="K8" s="37">
+        <v>1</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+    </row>
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="16.5">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>1607385600</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>1607961599</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="35">
-        <v>1</v>
-      </c>
-      <c r="I9" s="35">
+      <c r="H9" s="34">
+        <v>1</v>
+      </c>
+      <c r="I9" s="34">
         <v>8</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <v>8</v>
       </c>
-      <c r="K9" s="38">
-        <v>1</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="6"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="K9" s="37">
+        <v>1</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="1:16" s="51" customFormat="1" ht="16.5">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="47">
+        <v>1607990400</v>
+      </c>
+      <c r="D10" s="47">
+        <v>1608566399</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="47">
+        <v>1</v>
+      </c>
+      <c r="I10" s="47">
+        <v>9</v>
+      </c>
+      <c r="J10" s="50">
+        <v>9</v>
+      </c>
+      <c r="K10" s="51">
+        <v>1</v>
+      </c>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+    </row>
+    <row r="11" spans="1:16" s="51" customFormat="1" ht="16.5">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="47">
+        <v>1607990400</v>
+      </c>
+      <c r="D11" s="47">
+        <v>1608566399</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="47">
+        <v>1</v>
+      </c>
+      <c r="I11" s="47">
+        <v>10</v>
+      </c>
+      <c r="J11" s="50">
+        <v>10</v>
+      </c>
+      <c r="K11" s="51">
+        <v>1</v>
+      </c>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
     </row>
     <row r="12" spans="1:16" ht="16.5">
       <c r="A12" s="1"/>
@@ -1793,8 +1913,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="16.5">
       <c r="A13" s="1"/>
@@ -1806,53 +1926,59 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="16.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="16.5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="16.5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="1:16" customFormat="1"/>
-    <row r="18" spans="1:16" customFormat="1"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="16.5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" customFormat="1">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+    </row>
+    <row r="18" spans="1:16" customFormat="1">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+    </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1860,7 +1986,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1868,61 +1994,61 @@
     </row>
     <row r="21" spans="1:16" ht="16.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="16.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="16.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="16.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1930,7 +2056,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1954,7 +2080,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1962,7 +2088,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1982,7 +2108,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C21" sqref="C21:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2105,46 +2231,54 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" s="9" customFormat="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+    <row r="10" spans="1:7" s="47" customFormat="1">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="47" customFormat="1">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2157,11 +2291,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2195,10 +2329,10 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2308,7 +2442,7 @@
       <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2328,7 +2462,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2351,7 +2485,7 @@
       <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2472,7 +2606,7 @@
       <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2484,21 +2618,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="1">
@@ -2509,21 +2643,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>3</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="1">
@@ -2534,20 +2668,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>3</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>5</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="1">
@@ -2558,20 +2692,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>3</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>6</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1">
@@ -2582,20 +2716,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>3</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>7</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="1">
@@ -2606,21 +2740,21 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>4</v>
       </c>
-      <c r="C18" s="20">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="20" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="19" t="s">
         <v>93</v>
       </c>
       <c r="J18" s="1">
@@ -2631,21 +2765,21 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>4</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>2</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="20" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="19" t="s">
         <v>94</v>
       </c>
       <c r="J19" s="1">
@@ -2656,21 +2790,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>4</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>3</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="19" t="s">
         <v>95</v>
       </c>
       <c r="J20" s="1">
@@ -2681,21 +2815,21 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>4</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>4</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="19" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2703,21 +2837,21 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>4</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>5</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="1">
@@ -2728,21 +2862,21 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>4</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>6</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="19" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="1">
@@ -2753,21 +2887,21 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>4</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>7</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="22" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="19" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="1">
@@ -2778,2132 +2912,2386 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>4</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>8</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="19" t="s">
         <v>100</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="25" customFormat="1">
-      <c r="A26" s="25">
+    <row r="26" spans="1:10" s="24" customFormat="1">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>5</v>
       </c>
-      <c r="C26" s="26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="26" t="s">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="25" customFormat="1">
-      <c r="A27" s="25">
+      <c r="J26" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="24" customFormat="1">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>5</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>2</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="26" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="25" customFormat="1">
-      <c r="A28" s="25">
+      <c r="J27" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="24" customFormat="1">
+      <c r="A28" s="24">
         <v>27</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>5</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>3</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="26" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="25" customFormat="1">
-      <c r="A29" s="25">
+      <c r="J28" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="24" customFormat="1">
+      <c r="A29" s="24">
         <v>28</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>5</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="25">
         <v>4</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="28" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="25" customFormat="1">
-      <c r="A30" s="25">
+    <row r="30" spans="1:10" s="24" customFormat="1">
+      <c r="A30" s="24">
         <v>29</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>5</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>5</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="28" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="25" customFormat="1">
-      <c r="A31" s="25">
+    <row r="31" spans="1:10" s="24" customFormat="1">
+      <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>5</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <v>6</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="28" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="25" customFormat="1">
-      <c r="A32" s="25">
+    <row r="32" spans="1:10" s="24" customFormat="1">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>5</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="25">
         <v>7</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="28" t="s">
+      <c r="E32" s="25"/>
+      <c r="F32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="25" customFormat="1">
-      <c r="A33" s="25">
+      <c r="J32" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="24" customFormat="1">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>5</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <v>8</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="28" t="s">
+      <c r="E33" s="25"/>
+      <c r="F33" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="30" customFormat="1">
-      <c r="A34" s="25">
+      <c r="J33" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="29" customFormat="1">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="30">
         <v>6</v>
       </c>
-      <c r="C34" s="31">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="30">
+        <v>1</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="31" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="30" customFormat="1">
-      <c r="A35" s="25">
+      <c r="J34" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="29" customFormat="1">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="30">
         <v>6</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <v>2</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="31" t="s">
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="30" customFormat="1">
-      <c r="A36" s="25">
+      <c r="J35" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="29" customFormat="1">
+      <c r="A36" s="24">
         <v>35</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="30">
         <v>6</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <v>3</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="31" t="s">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="30" customFormat="1">
-      <c r="A37" s="25">
+      <c r="J36" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="29" customFormat="1">
+      <c r="A37" s="24">
         <v>36</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="30">
         <v>6</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <v>4</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="33" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="30" customFormat="1">
-      <c r="A38" s="25">
+    <row r="38" spans="1:10" s="29" customFormat="1">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="30">
         <v>6</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="30">
         <v>5</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="33" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="34" t="s">
+      <c r="H38" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="30" customFormat="1">
-      <c r="A39" s="25">
+    <row r="39" spans="1:10" s="29" customFormat="1">
+      <c r="A39" s="24">
         <v>38</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="30">
         <v>6</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="30">
         <v>6</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="30"/>
+      <c r="F39" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="34" t="s">
+      <c r="H39" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="30" customFormat="1">
-      <c r="A40" s="25">
+    <row r="40" spans="1:10" s="29" customFormat="1">
+      <c r="A40" s="24">
         <v>39</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="30">
         <v>6</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="30">
         <v>7</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="33" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H40" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="30" customFormat="1">
-      <c r="A41" s="25">
+      <c r="J40" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="29" customFormat="1">
+      <c r="A41" s="24">
         <v>40</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="30">
         <v>6</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <v>8</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="33" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="43" customFormat="1">
-      <c r="A42" s="43">
+      <c r="J41" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="42" customFormat="1">
+      <c r="A42" s="42">
         <v>41</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="43">
         <v>7</v>
       </c>
-      <c r="C42" s="44">
-        <v>1</v>
-      </c>
-      <c r="D42" s="45" t="s">
+      <c r="C42" s="43">
+        <v>1</v>
+      </c>
+      <c r="D42" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="44" t="s">
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="43" customFormat="1">
-      <c r="A43" s="43">
+      <c r="J42" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="42" customFormat="1">
+      <c r="A43" s="42">
         <v>42</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="43">
         <v>7</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="43">
         <v>2</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="44" t="s">
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="43" customFormat="1">
-      <c r="A44" s="43">
+      <c r="J43" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="42" customFormat="1">
+      <c r="A44" s="42">
         <v>43</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="43">
         <v>7</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="43">
         <v>3</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="44" t="s">
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="43" customFormat="1">
-      <c r="A45" s="43">
+      <c r="J44" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="42" customFormat="1">
+      <c r="A45" s="42">
         <v>44</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="43">
         <v>7</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="43">
         <v>4</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="46" t="s">
+      <c r="E45" s="43"/>
+      <c r="F45" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="44" t="s">
+      <c r="H45" s="43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="43" customFormat="1">
-      <c r="A46" s="43">
+    <row r="46" spans="1:10" s="42" customFormat="1">
+      <c r="A46" s="42">
         <v>45</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="43">
         <v>7</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C46" s="43">
         <v>5</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="46" t="s">
+      <c r="E46" s="43"/>
+      <c r="F46" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="47" t="s">
+      <c r="H46" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="43" customFormat="1">
-      <c r="A47" s="43">
+    <row r="47" spans="1:10" s="42" customFormat="1">
+      <c r="A47" s="42">
         <v>46</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="43">
         <v>7</v>
       </c>
-      <c r="C47" s="44">
+      <c r="C47" s="43">
         <v>6</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="46" t="s">
+      <c r="E47" s="43"/>
+      <c r="F47" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="43">
+      <c r="J47" s="42">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="43" customFormat="1">
-      <c r="A48" s="43">
+    <row r="48" spans="1:10" s="42" customFormat="1">
+      <c r="A48" s="42">
         <v>47</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="43">
         <v>7</v>
       </c>
-      <c r="C48" s="44">
+      <c r="C48" s="43">
         <v>7</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="46" t="s">
+      <c r="E48" s="43"/>
+      <c r="F48" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="47" t="s">
+      <c r="H48" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="43" customFormat="1">
-      <c r="A49" s="43">
+      <c r="J48" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="42" customFormat="1">
+      <c r="A49" s="42">
         <v>48</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="43">
         <v>7</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="43">
         <v>8</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="46" t="s">
+      <c r="E49" s="43"/>
+      <c r="F49" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="H49" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="J49" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="35" customFormat="1">
-      <c r="A50" s="35">
+      <c r="J49" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="34" customFormat="1">
+      <c r="A50" s="34">
         <v>49</v>
       </c>
-      <c r="B50" s="40">
+      <c r="B50" s="39">
         <v>8</v>
       </c>
-      <c r="C50" s="40">
-        <v>1</v>
-      </c>
-      <c r="D50" s="41" t="s">
+      <c r="C50" s="39">
+        <v>1</v>
+      </c>
+      <c r="D50" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="40" t="s">
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="35" customFormat="1">
-      <c r="A51" s="35">
+      <c r="J50" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="34" customFormat="1">
+      <c r="A51" s="34">
         <v>50</v>
       </c>
-      <c r="B51" s="40">
+      <c r="B51" s="39">
         <v>8</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="39">
         <v>2</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="40" t="s">
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="35" customFormat="1">
-      <c r="A52" s="35">
+      <c r="J51" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="34" customFormat="1">
+      <c r="A52" s="34">
         <v>51</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="39">
         <v>8</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="39">
         <v>3</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="40" t="s">
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="35" customFormat="1">
-      <c r="A53" s="35">
+      <c r="J52" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="34" customFormat="1">
+      <c r="A53" s="34">
         <v>52</v>
       </c>
-      <c r="B53" s="40">
+      <c r="B53" s="39">
         <v>8</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="39">
         <v>4</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="42" t="s">
+      <c r="E53" s="39"/>
+      <c r="F53" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="35" customFormat="1">
-      <c r="A54" s="35">
+    <row r="54" spans="1:10" s="34" customFormat="1">
+      <c r="A54" s="34">
         <v>53</v>
       </c>
-      <c r="B54" s="40">
+      <c r="B54" s="39">
         <v>8</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="39">
         <v>5</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="42" t="s">
+      <c r="E54" s="39"/>
+      <c r="F54" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H54" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="35">
+      <c r="J54" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="35" customFormat="1">
-      <c r="A55" s="35">
+    <row r="55" spans="1:10" s="34" customFormat="1">
+      <c r="A55" s="34">
         <v>54</v>
       </c>
-      <c r="B55" s="40">
+      <c r="B55" s="39">
         <v>8</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="39">
         <v>6</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="42" t="s">
+      <c r="E55" s="39"/>
+      <c r="F55" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H55" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="35">
+      <c r="J55" s="34">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="35" customFormat="1">
-      <c r="A56" s="35">
+    <row r="56" spans="1:10" s="34" customFormat="1">
+      <c r="A56" s="34">
         <v>55</v>
       </c>
-      <c r="B56" s="40">
+      <c r="B56" s="39">
         <v>8</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="39">
         <v>7</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="42" t="s">
+      <c r="E56" s="39"/>
+      <c r="F56" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="36" t="s">
+      <c r="H56" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J56" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="35" customFormat="1">
-      <c r="A57" s="35">
+      <c r="J56" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="34" customFormat="1">
+      <c r="A57" s="34">
         <v>56</v>
       </c>
-      <c r="B57" s="40">
+      <c r="B57" s="39">
         <v>8</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="39">
         <v>8</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="42" t="s">
+      <c r="E57" s="39"/>
+      <c r="F57" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G57" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="16"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="20"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="16"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="20"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="16"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="16"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="20"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="16"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="16"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="20"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="16"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="20"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="16"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="20"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="16"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="20"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="16"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="20"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="16"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="20"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="16"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="20"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="16"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="20"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="16"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="20"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="16"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="20"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="16"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="20"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="16"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="20"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="16"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="20"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="16"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="20"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="16"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="20"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="16"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="20"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="16"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="20"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="16"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="20"/>
+      <c r="J57" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="47" customFormat="1">
+      <c r="A58" s="47">
+        <v>57</v>
+      </c>
+      <c r="B58" s="55">
+        <v>9</v>
+      </c>
+      <c r="C58" s="55">
+        <v>1</v>
+      </c>
+      <c r="D58" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="J58" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="47" customFormat="1">
+      <c r="A59" s="47">
+        <v>58</v>
+      </c>
+      <c r="B59" s="55">
+        <v>9</v>
+      </c>
+      <c r="C59" s="55">
+        <v>2</v>
+      </c>
+      <c r="D59" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="47" customFormat="1">
+      <c r="A60" s="47">
+        <v>59</v>
+      </c>
+      <c r="B60" s="55">
+        <v>9</v>
+      </c>
+      <c r="C60" s="55">
+        <v>3</v>
+      </c>
+      <c r="D60" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="47" customFormat="1">
+      <c r="A61" s="47">
+        <v>60</v>
+      </c>
+      <c r="B61" s="55">
+        <v>9</v>
+      </c>
+      <c r="C61" s="55">
+        <v>4</v>
+      </c>
+      <c r="D61" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="55"/>
+      <c r="F61" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="47" customFormat="1">
+      <c r="A62" s="47">
+        <v>61</v>
+      </c>
+      <c r="B62" s="55">
+        <v>9</v>
+      </c>
+      <c r="C62" s="55">
+        <v>5</v>
+      </c>
+      <c r="D62" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="55"/>
+      <c r="F62" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="47" customFormat="1">
+      <c r="A63" s="47">
+        <v>62</v>
+      </c>
+      <c r="B63" s="55">
+        <v>9</v>
+      </c>
+      <c r="C63" s="55">
+        <v>6</v>
+      </c>
+      <c r="D63" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="55"/>
+      <c r="F63" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="J63" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="47" customFormat="1">
+      <c r="A64" s="47">
+        <v>63</v>
+      </c>
+      <c r="B64" s="55">
+        <v>9</v>
+      </c>
+      <c r="C64" s="55">
+        <v>7</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="55"/>
+      <c r="F64" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="J64" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="47" customFormat="1">
+      <c r="A65" s="47">
+        <v>64</v>
+      </c>
+      <c r="B65" s="55">
+        <v>9</v>
+      </c>
+      <c r="C65" s="55">
+        <v>8</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="55"/>
+      <c r="F65" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="J65" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="53" customFormat="1">
+      <c r="A66" s="53">
+        <v>65</v>
+      </c>
+      <c r="B66" s="58">
+        <v>10</v>
+      </c>
+      <c r="C66" s="58">
+        <v>1</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="J66" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="53" customFormat="1">
+      <c r="A67" s="53">
+        <v>66</v>
+      </c>
+      <c r="B67" s="58">
+        <v>10</v>
+      </c>
+      <c r="C67" s="58">
+        <v>2</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J67" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="53" customFormat="1">
+      <c r="A68" s="53">
+        <v>67</v>
+      </c>
+      <c r="B68" s="58">
+        <v>10</v>
+      </c>
+      <c r="C68" s="58">
+        <v>3</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="53" customFormat="1">
+      <c r="A69" s="53">
+        <v>68</v>
+      </c>
+      <c r="B69" s="58">
+        <v>10</v>
+      </c>
+      <c r="C69" s="58">
+        <v>4</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="58"/>
+      <c r="F69" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="53" customFormat="1">
+      <c r="A70" s="53">
+        <v>69</v>
+      </c>
+      <c r="B70" s="58">
+        <v>10</v>
+      </c>
+      <c r="C70" s="58">
+        <v>5</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="58"/>
+      <c r="F70" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="J70" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="53" customFormat="1">
+      <c r="A71" s="53">
+        <v>70</v>
+      </c>
+      <c r="B71" s="58">
+        <v>10</v>
+      </c>
+      <c r="C71" s="58">
+        <v>6</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="58"/>
+      <c r="F71" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="J71" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="53" customFormat="1">
+      <c r="A72" s="53">
+        <v>71</v>
+      </c>
+      <c r="B72" s="58">
+        <v>10</v>
+      </c>
+      <c r="C72" s="58">
+        <v>7</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" s="58"/>
+      <c r="F72" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="J72" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="53" customFormat="1">
+      <c r="A73" s="53">
+        <v>72</v>
+      </c>
+      <c r="B73" s="58">
+        <v>10</v>
+      </c>
+      <c r="C73" s="58">
+        <v>8</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="58"/>
+      <c r="F73" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="J73" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="19"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="15"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="19"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="15"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="19"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="19"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="19"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="19"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="16"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="20"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="19"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="16"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="20"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="19"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="16"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="20"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="16"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="20"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="19"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="16"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="20"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="19"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="16"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="20"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="19"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="16"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="20"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="19"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="16"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="20"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="19"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="16"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="20"/>
-    </row>
-    <row r="90" spans="1:8" s="9" customFormat="1">
-      <c r="A90" s="16"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="20"/>
-    </row>
-    <row r="91" spans="1:8" s="9" customFormat="1">
-      <c r="A91" s="16"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="20"/>
-    </row>
-    <row r="92" spans="1:8" s="9" customFormat="1">
-      <c r="A92" s="16"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="20"/>
-    </row>
-    <row r="93" spans="1:8" s="9" customFormat="1">
-      <c r="A93" s="16"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="20"/>
-    </row>
-    <row r="94" spans="1:8" s="9" customFormat="1">
-      <c r="A94" s="16"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="20"/>
-    </row>
-    <row r="95" spans="1:8" s="9" customFormat="1">
-      <c r="A95" s="16"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="20"/>
-    </row>
-    <row r="96" spans="1:8" s="9" customFormat="1">
-      <c r="A96" s="16"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="20"/>
-    </row>
-    <row r="97" spans="1:8" s="9" customFormat="1">
-      <c r="A97" s="16"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="20"/>
-    </row>
-    <row r="98" spans="1:8" s="9" customFormat="1">
-      <c r="A98" s="16"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="20"/>
-    </row>
-    <row r="99" spans="1:8" s="9" customFormat="1">
-      <c r="A99" s="16"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="20"/>
-    </row>
-    <row r="100" spans="1:8" s="9" customFormat="1">
-      <c r="A100" s="16"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="20"/>
-    </row>
-    <row r="101" spans="1:8" s="9" customFormat="1">
-      <c r="A101" s="16"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="20"/>
-    </row>
-    <row r="102" spans="1:8" s="9" customFormat="1">
-      <c r="A102" s="16"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="20"/>
-    </row>
-    <row r="103" spans="1:8" s="9" customFormat="1">
-      <c r="A103" s="16"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="20"/>
-    </row>
-    <row r="104" spans="1:8" s="9" customFormat="1">
-      <c r="A104" s="16"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="20"/>
-    </row>
-    <row r="105" spans="1:8" s="9" customFormat="1">
-      <c r="A105" s="16"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="20"/>
-    </row>
-    <row r="106" spans="1:8" s="9" customFormat="1">
-      <c r="A106" s="16"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="20"/>
-    </row>
-    <row r="107" spans="1:8" s="9" customFormat="1">
-      <c r="A107" s="16"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="20"/>
-    </row>
-    <row r="108" spans="1:8" s="9" customFormat="1">
-      <c r="A108" s="16"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="20"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="19"/>
+    </row>
+    <row r="90" spans="1:8" s="8" customFormat="1">
+      <c r="A90" s="15"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="19"/>
+    </row>
+    <row r="91" spans="1:8" s="8" customFormat="1">
+      <c r="A91" s="15"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="19"/>
+    </row>
+    <row r="92" spans="1:8" s="8" customFormat="1">
+      <c r="A92" s="15"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="19"/>
+    </row>
+    <row r="93" spans="1:8" s="8" customFormat="1">
+      <c r="A93" s="15"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="19"/>
+    </row>
+    <row r="94" spans="1:8" s="8" customFormat="1">
+      <c r="A94" s="15"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="19"/>
+    </row>
+    <row r="95" spans="1:8" s="8" customFormat="1">
+      <c r="A95" s="15"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="19"/>
+    </row>
+    <row r="96" spans="1:8" s="8" customFormat="1">
+      <c r="A96" s="15"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="19"/>
+    </row>
+    <row r="97" spans="1:8" s="8" customFormat="1">
+      <c r="A97" s="15"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="19"/>
+    </row>
+    <row r="98" spans="1:8" s="8" customFormat="1">
+      <c r="A98" s="15"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="19"/>
+    </row>
+    <row r="99" spans="1:8" s="8" customFormat="1">
+      <c r="A99" s="15"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="19"/>
+    </row>
+    <row r="100" spans="1:8" s="8" customFormat="1">
+      <c r="A100" s="15"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="19"/>
+    </row>
+    <row r="101" spans="1:8" s="8" customFormat="1">
+      <c r="A101" s="15"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="19"/>
+    </row>
+    <row r="102" spans="1:8" s="8" customFormat="1">
+      <c r="A102" s="15"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="19"/>
+    </row>
+    <row r="103" spans="1:8" s="8" customFormat="1">
+      <c r="A103" s="15"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="19"/>
+    </row>
+    <row r="104" spans="1:8" s="8" customFormat="1">
+      <c r="A104" s="15"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="19"/>
+    </row>
+    <row r="105" spans="1:8" s="8" customFormat="1">
+      <c r="A105" s="15"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="19"/>
+    </row>
+    <row r="106" spans="1:8" s="8" customFormat="1">
+      <c r="A106" s="15"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="19"/>
+    </row>
+    <row r="107" spans="1:8" s="8" customFormat="1">
+      <c r="A107" s="15"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="19"/>
+    </row>
+    <row r="108" spans="1:8" s="8" customFormat="1">
+      <c r="A108" s="15"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="19"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="16"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="20"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="19"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="16"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="20"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="19"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="16"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="20"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="19"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="16"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="20"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="19"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="16"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="20"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="19"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="16"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="20"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="19"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="16"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="20"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="19"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="16"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="20"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="19"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="16"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="20"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="19"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="16"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="20"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="19"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="16"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="20"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="19"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="16"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="20"/>
-    </row>
-    <row r="121" spans="1:8" s="9" customFormat="1">
-      <c r="A121" s="16"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="20"/>
-    </row>
-    <row r="122" spans="1:8" s="9" customFormat="1">
-      <c r="A122" s="16"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="20"/>
-    </row>
-    <row r="123" spans="1:8" s="9" customFormat="1">
-      <c r="A123" s="16"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="20"/>
-    </row>
-    <row r="124" spans="1:8" s="9" customFormat="1">
-      <c r="A124" s="16"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="20"/>
-    </row>
-    <row r="125" spans="1:8" s="9" customFormat="1">
-      <c r="A125" s="16"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="20"/>
-    </row>
-    <row r="126" spans="1:8" s="9" customFormat="1">
-      <c r="A126" s="16"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="20"/>
-    </row>
-    <row r="127" spans="1:8" s="9" customFormat="1">
-      <c r="A127" s="16"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="20"/>
-    </row>
-    <row r="128" spans="1:8" s="9" customFormat="1">
-      <c r="A128" s="16"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="20"/>
-    </row>
-    <row r="129" spans="1:8" s="9" customFormat="1">
-      <c r="A129" s="16"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="20"/>
-    </row>
-    <row r="130" spans="1:8" s="9" customFormat="1">
-      <c r="A130" s="16"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="20"/>
-    </row>
-    <row r="131" spans="1:8" s="9" customFormat="1">
-      <c r="A131" s="16"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="20"/>
-    </row>
-    <row r="132" spans="1:8" s="9" customFormat="1">
-      <c r="A132" s="16"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="20"/>
-    </row>
-    <row r="133" spans="1:8" s="9" customFormat="1">
-      <c r="A133" s="16"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="20"/>
-    </row>
-    <row r="134" spans="1:8" s="9" customFormat="1">
-      <c r="A134" s="16"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="20"/>
-    </row>
-    <row r="135" spans="1:8" s="9" customFormat="1">
-      <c r="A135" s="16"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="20"/>
-    </row>
-    <row r="136" spans="1:8" s="9" customFormat="1">
-      <c r="A136" s="16"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="22"/>
-      <c r="H136" s="20"/>
-    </row>
-    <row r="137" spans="1:8" s="9" customFormat="1">
-      <c r="A137" s="16"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="20"/>
-    </row>
-    <row r="138" spans="1:8" s="9" customFormat="1">
-      <c r="A138" s="16"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="22"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="20"/>
-    </row>
-    <row r="139" spans="1:8" s="9" customFormat="1">
-      <c r="A139" s="16"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="22"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="20"/>
-    </row>
-    <row r="140" spans="1:8" s="9" customFormat="1">
-      <c r="A140" s="16"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="22"/>
-      <c r="H140" s="20"/>
-    </row>
-    <row r="141" spans="1:8" s="9" customFormat="1">
-      <c r="A141" s="16"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="20"/>
-    </row>
-    <row r="142" spans="1:8" s="9" customFormat="1">
-      <c r="A142" s="16"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="22"/>
-      <c r="G142" s="22"/>
-      <c r="H142" s="20"/>
-    </row>
-    <row r="143" spans="1:8" s="9" customFormat="1">
-      <c r="A143" s="16"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="20"/>
-    </row>
-    <row r="144" spans="1:8" s="9" customFormat="1">
-      <c r="A144" s="16"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="20"/>
-    </row>
-    <row r="145" spans="1:12" s="9" customFormat="1">
-      <c r="A145" s="16"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="20"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="19"/>
+    </row>
+    <row r="121" spans="1:8" s="8" customFormat="1">
+      <c r="A121" s="15"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="19"/>
+    </row>
+    <row r="122" spans="1:8" s="8" customFormat="1">
+      <c r="A122" s="15"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="19"/>
+    </row>
+    <row r="123" spans="1:8" s="8" customFormat="1">
+      <c r="A123" s="15"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="19"/>
+    </row>
+    <row r="124" spans="1:8" s="8" customFormat="1">
+      <c r="A124" s="15"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="19"/>
+    </row>
+    <row r="125" spans="1:8" s="8" customFormat="1">
+      <c r="A125" s="15"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="19"/>
+    </row>
+    <row r="126" spans="1:8" s="8" customFormat="1">
+      <c r="A126" s="15"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="19"/>
+    </row>
+    <row r="127" spans="1:8" s="8" customFormat="1">
+      <c r="A127" s="15"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="19"/>
+    </row>
+    <row r="128" spans="1:8" s="8" customFormat="1">
+      <c r="A128" s="15"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="19"/>
+    </row>
+    <row r="129" spans="1:8" s="8" customFormat="1">
+      <c r="A129" s="15"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="19"/>
+    </row>
+    <row r="130" spans="1:8" s="8" customFormat="1">
+      <c r="A130" s="15"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="19"/>
+    </row>
+    <row r="131" spans="1:8" s="8" customFormat="1">
+      <c r="A131" s="15"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="19"/>
+    </row>
+    <row r="132" spans="1:8" s="8" customFormat="1">
+      <c r="A132" s="15"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="19"/>
+    </row>
+    <row r="133" spans="1:8" s="8" customFormat="1">
+      <c r="A133" s="15"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="19"/>
+    </row>
+    <row r="134" spans="1:8" s="8" customFormat="1">
+      <c r="A134" s="15"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="19"/>
+    </row>
+    <row r="135" spans="1:8" s="8" customFormat="1">
+      <c r="A135" s="15"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="19"/>
+    </row>
+    <row r="136" spans="1:8" s="8" customFormat="1">
+      <c r="A136" s="15"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="19"/>
+    </row>
+    <row r="137" spans="1:8" s="8" customFormat="1">
+      <c r="A137" s="15"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="19"/>
+    </row>
+    <row r="138" spans="1:8" s="8" customFormat="1">
+      <c r="A138" s="15"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="19"/>
+    </row>
+    <row r="139" spans="1:8" s="8" customFormat="1">
+      <c r="A139" s="15"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="19"/>
+    </row>
+    <row r="140" spans="1:8" s="8" customFormat="1">
+      <c r="A140" s="15"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="19"/>
+    </row>
+    <row r="141" spans="1:8" s="8" customFormat="1">
+      <c r="A141" s="15"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="19"/>
+    </row>
+    <row r="142" spans="1:8" s="8" customFormat="1">
+      <c r="A142" s="15"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="19"/>
+    </row>
+    <row r="143" spans="1:8" s="8" customFormat="1">
+      <c r="A143" s="15"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="19"/>
+    </row>
+    <row r="144" spans="1:8" s="8" customFormat="1">
+      <c r="A144" s="15"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="19"/>
+    </row>
+    <row r="145" spans="1:12" s="8" customFormat="1">
+      <c r="A145" s="15"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="19"/>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="16"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="20"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="19"/>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="16"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="20"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="19"/>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="16"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
-      <c r="H148" s="20"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="19"/>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="16"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="22"/>
-      <c r="H149" s="20"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="19"/>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="16"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="22"/>
-      <c r="H150" s="20"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="19"/>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="16"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="20"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="19"/>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="16"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="22"/>
-      <c r="G152" s="22"/>
-      <c r="H152" s="20"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="19"/>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="16"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="22"/>
-      <c r="H153" s="20"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="19"/>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="16"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="22"/>
-      <c r="H154" s="20"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="19"/>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="16"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="20"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="19"/>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="16"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="22"/>
-      <c r="G156" s="22"/>
-      <c r="H156" s="20"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="19"/>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="16"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="20"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="19"/>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="16"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="22"/>
-      <c r="G158" s="22"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
-      <c r="K158" s="9"/>
-      <c r="L158" s="9"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="16"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
-      <c r="L159" s="9"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="16"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="22"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="16"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="22"/>
-      <c r="G161" s="22"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="16"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="20"/>
-      <c r="F162" s="22"/>
-      <c r="G162" s="22"/>
-      <c r="H162" s="20"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="9"/>
-      <c r="L162" s="9"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="16"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="22"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="16"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="22"/>
-      <c r="G164" s="22"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="9"/>
-      <c r="L164" s="9"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="16"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="9"/>
-      <c r="L165" s="9"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="16"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="22"/>
-      <c r="G166" s="22"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="9"/>
-      <c r="L166" s="9"/>
+      <c r="A166" s="15"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="16"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="22"/>
-      <c r="G167" s="22"/>
-      <c r="H167" s="20"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="9"/>
-      <c r="L167" s="9"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="16"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="22"/>
-      <c r="G168" s="22"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
-      <c r="K168" s="9"/>
-      <c r="L168" s="9"/>
+      <c r="A168" s="15"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="16"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="20"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="22"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="9"/>
-      <c r="J169" s="9"/>
-      <c r="K169" s="9"/>
-      <c r="L169" s="9"/>
+      <c r="A169" s="15"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="8"/>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="16"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="22"/>
-      <c r="G170" s="22"/>
-      <c r="H170" s="20"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="9"/>
-      <c r="L170" s="9"/>
+      <c r="A170" s="15"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="16"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="22"/>
-      <c r="G171" s="22"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="9"/>
-      <c r="J171" s="9"/>
-      <c r="K171" s="9"/>
-      <c r="L171" s="9"/>
+      <c r="A171" s="15"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="16"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="22"/>
-      <c r="G172" s="22"/>
-      <c r="H172" s="20"/>
+      <c r="A172" s="15"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="19"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="16"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="22"/>
-      <c r="G173" s="22"/>
-      <c r="H173" s="20"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="19"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="16"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="16"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="20"/>
-      <c r="F174" s="22"/>
-      <c r="G174" s="22"/>
-      <c r="H174" s="20"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="19"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="16"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="16"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="20"/>
-      <c r="F175" s="22"/>
-      <c r="G175" s="22"/>
-      <c r="H175" s="20"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="19"/>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="16"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="22"/>
-      <c r="G176" s="22"/>
-      <c r="H176" s="20"/>
+      <c r="A176" s="15"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="19"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="16"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="22"/>
-      <c r="G177" s="22"/>
-      <c r="H177" s="20"/>
+      <c r="A177" s="15"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="19"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="16"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="22"/>
-      <c r="G178" s="22"/>
-      <c r="H178" s="20"/>
+      <c r="A178" s="15"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="19"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="16"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="20"/>
-      <c r="F179" s="22"/>
-      <c r="G179" s="22"/>
-      <c r="H179" s="20"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="19"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">

--- a/config_12.15/activity_exchange_server.xlsx
+++ b/config_12.15/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -777,18 +777,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>双十二换好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在双十二换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在双十二换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>奥克斯煮蛋器</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -876,18 +864,6 @@
     <t>"prop_dz_jz",</t>
   </si>
   <si>
-    <t>冬至换好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在冬至换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在冬至换好礼活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>澳洲进口奶粉</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -897,6 +873,30 @@
   </si>
   <si>
     <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二狂欢节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二狂欢节</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐冬至</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1512,8 +1512,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1787,7 +1787,7 @@
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H8" s="34">
         <v>1</v>
@@ -1820,7 +1820,7 @@
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H9" s="34">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" s="47">
         <v>1607990400</v>
@@ -1853,7 +1853,7 @@
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
       <c r="G10" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H10" s="47">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C11" s="47">
         <v>1607990400</v>
@@ -1886,7 +1886,7 @@
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
       <c r="G11" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H11" s="47">
         <v>1</v>
@@ -2107,8 +2107,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2214,10 +2214,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2225,32 +2225,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="47" customFormat="1">
       <c r="A10" s="47">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>148</v>
+      <c r="B10" s="49" t="s">
+        <v>152</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="47" customFormat="1">
       <c r="A11" s="47">
         <v>10</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>148</v>
+      <c r="B11" s="49" t="s">
+        <v>152</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2283,6 +2283,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2949,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -3156,7 +3157,7 @@
         <v>132</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -3363,7 +3364,7 @@
         <v>131</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F42" s="45"/>
       <c r="G42" s="45"/>
@@ -3388,7 +3389,7 @@
         <v>131</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F43" s="45"/>
       <c r="G43" s="45"/>
@@ -3413,7 +3414,7 @@
         <v>131</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F44" s="45"/>
       <c r="G44" s="45"/>
@@ -3570,7 +3571,7 @@
         <v>132</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
@@ -3595,7 +3596,7 @@
         <v>132</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
@@ -3620,7 +3621,7 @@
         <v>132</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
@@ -3777,7 +3778,7 @@
         <v>131</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F58" s="57"/>
       <c r="G58" s="57"/>
@@ -3802,7 +3803,7 @@
         <v>131</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F59" s="57"/>
       <c r="G59" s="57"/>
@@ -3827,7 +3828,7 @@
         <v>131</v>
       </c>
       <c r="E60" s="55" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F60" s="57"/>
       <c r="G60" s="57"/>
@@ -3984,7 +3985,7 @@
         <v>132</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F66" s="60"/>
       <c r="G66" s="60"/>
@@ -4009,7 +4010,7 @@
         <v>132</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F67" s="60"/>
       <c r="G67" s="60"/>
@@ -4034,7 +4035,7 @@
         <v>132</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F68" s="60"/>
       <c r="G68" s="60"/>

--- a/config_12.15/activity_exchange_server.xlsx
+++ b/config_12.15/activity_exchange_server.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="155">
   <si>
     <t>id|</t>
   </si>
@@ -884,19 +884,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐冬至</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜您在双十二换狂欢节活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐冬至</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2217,7 +2221,7 @@
         <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2228,7 +2232,7 @@
         <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="47" customFormat="1">
@@ -2236,10 +2240,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>152</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="47" customFormat="1">
@@ -2247,10 +2251,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7">
